--- a/biology/Zoologie/Dolichodoridae/Dolichodoridae.xlsx
+++ b/biology/Zoologie/Dolichodoridae/Dolichodoridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dolichodoridae sont une famille de nématodes de l'ordre des Rhabditida.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste des sous-familles et genres selon World Register of Marine Species                               (12 mai 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles et genres selon World Register of Marine Species                               (12 mai 2021) :
 sous-famille des Belonolaiminae Whitehead, 1960
 genre Belonolaimus Steiner, 1949
 genre Carphodorus Colbran, 1965
@@ -592,17 +606,19 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les noms des familles suivantes sont synonymes de Dolichodoridae :
-Belonolaimidae Whitehead, 1960[1]
-Meioderidae Siddiqi, 1976[1],[2]
-Meiodoridae[2]
-Merliniidae Siddiqi, 1971[1],[2]
-Telotylenchidae Siddiqi, 1960[1],[2]
-Tylenchorhychidae[2]
-Tylenchorhynchidae Eliava, 1964[1],[2]
-Tylenorhynchidae[2]</t>
+Belonolaimidae Whitehead, 1960
+Meioderidae Siddiqi, 1976,
+Meiodoridae
+Merliniidae Siddiqi, 1971,
+Telotylenchidae Siddiqi, 1960,
+Tylenchorhychidae
+Tylenchorhynchidae Eliava, 1964,
+Tylenorhynchidae</t>
         </is>
       </c>
     </row>
@@ -630,7 +646,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Chitwood B.G. &amp; Chitwood M.B., 1950. An introduction to nematology (BHL).</t>
         </is>
